--- a/DOCUMENTACION BD CLIENTE.xlsx
+++ b/DOCUMENTACION BD CLIENTE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="33" activeTab="35"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="33" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="ACCESO USUARIO" sheetId="34" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2401" uniqueCount="695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2400" uniqueCount="695">
   <si>
     <t>Unchecked</t>
   </si>
@@ -2229,6 +2229,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2236,9 +2239,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2546,7 +2546,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2607,7 +2607,7 @@
       <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="13" t="s">
         <v>621</v>
       </c>
     </row>
@@ -2627,7 +2627,7 @@
       <c r="E4" t="s">
         <v>617</v>
       </c>
-      <c r="G4" s="16"/>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -2645,7 +2645,7 @@
       <c r="E5" t="s">
         <v>618</v>
       </c>
-      <c r="G5" s="16"/>
+      <c r="G5" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6342,7 +6342,7 @@
       <c r="D6" t="s">
         <v>548</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="14" t="s">
         <v>553</v>
       </c>
     </row>
@@ -6359,7 +6359,7 @@
       <c r="D7" t="s">
         <v>549</v>
       </c>
-      <c r="F7" s="13"/>
+      <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -6880,15 +6880,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="55.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -6943,8 +6943,8 @@
       <c r="D4" t="s">
         <v>116</v>
       </c>
-      <c r="E4" t="s">
-        <v>196</v>
+      <c r="E4" s="15" t="s">
+        <v>668</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -6960,9 +6960,7 @@
       <c r="D5" t="s">
         <v>537</v>
       </c>
-      <c r="E5" t="s">
-        <v>520</v>
-      </c>
+      <c r="E5" s="15"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -7108,6 +7106,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E4:E5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7593,10 +7594,10 @@
       <c r="C8" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="15" t="s">
         <v>57</v>
       </c>
     </row>
@@ -7610,8 +7611,8 @@
       <c r="C9" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -7809,7 +7810,7 @@
       <c r="C23" t="s">
         <v>0</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="15" t="s">
         <v>659</v>
       </c>
     </row>
@@ -7823,7 +7824,7 @@
       <c r="C24" t="s">
         <v>0</v>
       </c>
-      <c r="D24" s="14"/>
+      <c r="D24" s="15"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -7835,7 +7836,7 @@
       <c r="C25" t="s">
         <v>0</v>
       </c>
-      <c r="D25" s="14"/>
+      <c r="D25" s="15"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -7847,7 +7848,7 @@
       <c r="C26" t="s">
         <v>0</v>
       </c>
-      <c r="D26" s="14"/>
+      <c r="D26" s="15"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -7859,7 +7860,7 @@
       <c r="C27" t="s">
         <v>0</v>
       </c>
-      <c r="D27" s="14"/>
+      <c r="D27" s="15"/>
       <c r="F27" t="s">
         <v>661</v>
       </c>
@@ -7980,7 +7981,7 @@
       <c r="C7" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="15" t="s">
         <v>243</v>
       </c>
       <c r="E7" s="5" t="s">
@@ -7997,7 +7998,7 @@
       <c r="C8" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="14"/>
+      <c r="D8" s="15"/>
       <c r="E8" s="5" t="s">
         <v>57</v>
       </c>
@@ -8125,10 +8126,10 @@
       <c r="D16" t="s">
         <v>166</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="16" t="s">
         <v>245</v>
       </c>
     </row>
@@ -8142,11 +8143,11 @@
       <c r="C17" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="16"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -8158,9 +8159,9 @@
       <c r="C18" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="16"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -8172,9 +8173,9 @@
       <c r="C19" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="16"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -8186,9 +8187,9 @@
       <c r="C20" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="16"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -8200,9 +8201,9 @@
       <c r="C21" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="16"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -10015,7 +10016,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>

--- a/DOCUMENTACION BD CLIENTE.xlsx
+++ b/DOCUMENTACION BD CLIENTE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="33" activeTab="20"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="23" activeTab="29"/>
   </bookViews>
   <sheets>
     <sheet name="ACCESO USUARIO" sheetId="34" r:id="rId1"/>
@@ -18,37 +18,38 @@
     <sheet name="ENTIDADES" sheetId="8" r:id="rId9"/>
     <sheet name="EPS" sheetId="7" r:id="rId10"/>
     <sheet name="ESTADOS" sheetId="9" r:id="rId11"/>
-    <sheet name="LINEAS" sheetId="11" r:id="rId12"/>
-    <sheet name="MARCAS" sheetId="12" r:id="rId13"/>
-    <sheet name="MATERIALES" sheetId="13" r:id="rId14"/>
-    <sheet name="MATERIALES SUCURSAL" sheetId="37" r:id="rId15"/>
-    <sheet name="MENU CLIENTE" sheetId="1" r:id="rId16"/>
-    <sheet name="MENU PORTERIA" sheetId="35" r:id="rId17"/>
-    <sheet name="MOV DOCUMENTOS" sheetId="14" r:id="rId18"/>
-    <sheet name="MOV HERRAMIENTA" sheetId="15" r:id="rId19"/>
-    <sheet name="MOV MATERIALES" sheetId="16" r:id="rId20"/>
-    <sheet name="MOV PERSONAS" sheetId="17" r:id="rId21"/>
-    <sheet name="MOV VEHICULOS" sheetId="18" r:id="rId22"/>
-    <sheet name="MUNICIPIOS" sheetId="19" r:id="rId23"/>
-    <sheet name="NOTIFICACIONES" sheetId="20" r:id="rId24"/>
-    <sheet name="NOVEDADES" sheetId="21" r:id="rId25"/>
-    <sheet name="OBJETOS" sheetId="25" r:id="rId26"/>
-    <sheet name="PAISES" sheetId="22" r:id="rId27"/>
-    <sheet name="PERSONAS" sheetId="24" r:id="rId28"/>
-    <sheet name="PERSONAS SUCURSAL" sheetId="39" r:id="rId29"/>
-    <sheet name="PORTERIAS SUCURSAL" sheetId="40" r:id="rId30"/>
-    <sheet name="PORTERIAS" sheetId="41" r:id="rId31"/>
-    <sheet name="PRIVILEGIOS CLIENTE" sheetId="42" r:id="rId32"/>
-    <sheet name="SUCURSALES" sheetId="33" r:id="rId33"/>
-    <sheet name="TIPOS DOCUMENTO" sheetId="27" r:id="rId34"/>
-    <sheet name="UNIDADES" sheetId="28" r:id="rId35"/>
-    <sheet name="USUARIOS" sheetId="29" r:id="rId36"/>
-    <sheet name="VEHICULOS" sheetId="32" r:id="rId37"/>
-    <sheet name="VEHICULOS SUCURSAL" sheetId="38" r:id="rId38"/>
-    <sheet name="VISITAS ESPERADAS" sheetId="30" r:id="rId39"/>
+    <sheet name="HORARIOS" sheetId="43" r:id="rId12"/>
+    <sheet name="LINEAS" sheetId="11" r:id="rId13"/>
+    <sheet name="MARCAS" sheetId="12" r:id="rId14"/>
+    <sheet name="MATERIALES" sheetId="13" r:id="rId15"/>
+    <sheet name="MATERIALES SUCURSAL" sheetId="37" r:id="rId16"/>
+    <sheet name="MENU CLIENTE" sheetId="1" r:id="rId17"/>
+    <sheet name="MENU PORTERIA" sheetId="35" r:id="rId18"/>
+    <sheet name="MOV DOCUMENTOS" sheetId="14" r:id="rId19"/>
+    <sheet name="MOV HERRAMIENTA" sheetId="15" r:id="rId20"/>
+    <sheet name="MOV MATERIALES" sheetId="16" r:id="rId21"/>
+    <sheet name="MOV PERSONAS" sheetId="17" r:id="rId22"/>
+    <sheet name="MOV VEHICULOS" sheetId="18" r:id="rId23"/>
+    <sheet name="MUNICIPIOS" sheetId="19" r:id="rId24"/>
+    <sheet name="NOTIFICACIONES" sheetId="20" r:id="rId25"/>
+    <sheet name="NOVEDADES" sheetId="21" r:id="rId26"/>
+    <sheet name="OBJETOS" sheetId="25" r:id="rId27"/>
+    <sheet name="PAISES" sheetId="22" r:id="rId28"/>
+    <sheet name="PERSONAS" sheetId="24" r:id="rId29"/>
+    <sheet name="PERSONAS SUCURSAL" sheetId="39" r:id="rId30"/>
+    <sheet name="PORTERIAS SUCURSAL" sheetId="40" r:id="rId31"/>
+    <sheet name="PORTERIAS" sheetId="41" r:id="rId32"/>
+    <sheet name="PRIVILEGIOS CLIENTE" sheetId="42" r:id="rId33"/>
+    <sheet name="SUCURSALES" sheetId="33" r:id="rId34"/>
+    <sheet name="TIPOS DOCUMENTO" sheetId="27" r:id="rId35"/>
+    <sheet name="UNIDADES" sheetId="28" r:id="rId36"/>
+    <sheet name="USUARIOS" sheetId="29" r:id="rId37"/>
+    <sheet name="VEHICULOS" sheetId="32" r:id="rId38"/>
+    <sheet name="VEHICULOS SUCURSAL" sheetId="38" r:id="rId39"/>
+    <sheet name="VISITAS ESPERADAS" sheetId="30" r:id="rId40"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="27" hidden="1">PERSONAS!$A$2:$C$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="28" hidden="1">PERSONAS!$A$2:$C$33</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2400" uniqueCount="695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2494" uniqueCount="725">
   <si>
     <t>Unchecked</t>
   </si>
@@ -2145,6 +2146,96 @@
   </si>
   <si>
     <t>NIVEL DE ACCESO AL MENÚ DE CLIENTE QUE TIENE EL USUARIO</t>
+  </si>
+  <si>
+    <t>HORARIOS</t>
+  </si>
+  <si>
+    <t>Lunes</t>
+  </si>
+  <si>
+    <t>Hora_Ingreso_L</t>
+  </si>
+  <si>
+    <t>time(0)</t>
+  </si>
+  <si>
+    <t>Hora_Salida_L</t>
+  </si>
+  <si>
+    <t>Martes</t>
+  </si>
+  <si>
+    <t>Hora_Ingreso_M</t>
+  </si>
+  <si>
+    <t>Hora_Salida_M</t>
+  </si>
+  <si>
+    <t>Miercoles</t>
+  </si>
+  <si>
+    <t>Hora_Ingreso_W</t>
+  </si>
+  <si>
+    <t>Hora_Salida_W</t>
+  </si>
+  <si>
+    <t>Jueves</t>
+  </si>
+  <si>
+    <t>Hora_Ingreso_J</t>
+  </si>
+  <si>
+    <t>Hora_Salida_J</t>
+  </si>
+  <si>
+    <t>Viernes</t>
+  </si>
+  <si>
+    <t>Hora_Ingreso_V</t>
+  </si>
+  <si>
+    <t>Hora_Salida_V</t>
+  </si>
+  <si>
+    <t>Sabado</t>
+  </si>
+  <si>
+    <t>Hora_Ingreso_S</t>
+  </si>
+  <si>
+    <t>Hora_Salida_S</t>
+  </si>
+  <si>
+    <t>Domingo</t>
+  </si>
+  <si>
+    <t>Hora_Ingreso_D</t>
+  </si>
+  <si>
+    <t>Hora_Salida_D</t>
+  </si>
+  <si>
+    <t>PERSONAS_CLI</t>
+  </si>
+  <si>
+    <t>RESTRICCIÒN</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>UNIQUE</t>
+  </si>
+  <si>
+    <t>Horario</t>
+  </si>
+  <si>
+    <t>HORARIO QUE SERÁ ASIGNADO CADA MES POR DEFECTO</t>
+  </si>
+  <si>
+    <t>PUEDE SER NULO POR SI NO TIENE UN HORARIO POR DEFECTO</t>
   </si>
 </sst>
 </file>
@@ -2546,7 +2637,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2735,7 +2826,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2809,6 +2900,338 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>615</v>
+      </c>
+      <c r="B3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>616</v>
+      </c>
+      <c r="B4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>696</v>
+      </c>
+      <c r="B5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>697</v>
+      </c>
+      <c r="B6" t="s">
+        <v>698</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>699</v>
+      </c>
+      <c r="B7" t="s">
+        <v>698</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>700</v>
+      </c>
+      <c r="B8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>701</v>
+      </c>
+      <c r="B9" t="s">
+        <v>698</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>702</v>
+      </c>
+      <c r="B10" t="s">
+        <v>698</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>703</v>
+      </c>
+      <c r="B11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>704</v>
+      </c>
+      <c r="B12" t="s">
+        <v>698</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>705</v>
+      </c>
+      <c r="B13" t="s">
+        <v>698</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>706</v>
+      </c>
+      <c r="B14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>707</v>
+      </c>
+      <c r="B15" t="s">
+        <v>698</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>708</v>
+      </c>
+      <c r="B16" t="s">
+        <v>698</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>709</v>
+      </c>
+      <c r="B17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>710</v>
+      </c>
+      <c r="B18" t="s">
+        <v>698</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>711</v>
+      </c>
+      <c r="B19" t="s">
+        <v>698</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>712</v>
+      </c>
+      <c r="B20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>713</v>
+      </c>
+      <c r="B21" t="s">
+        <v>698</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>714</v>
+      </c>
+      <c r="B22" t="s">
+        <v>698</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>715</v>
+      </c>
+      <c r="B23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>716</v>
+      </c>
+      <c r="B24" t="s">
+        <v>698</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>717</v>
+      </c>
+      <c r="B25" t="s">
+        <v>698</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" t="s">
+        <v>248</v>
+      </c>
+      <c r="C26" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F148"/>
   <sheetViews>
@@ -4873,7 +5296,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F37"/>
   <sheetViews>
@@ -5432,7 +5855,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
@@ -5588,7 +6011,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
@@ -5729,7 +6152,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
@@ -5873,7 +6296,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
@@ -6017,7 +6440,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
@@ -6234,302 +6657,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="4" max="4" width="64.28515625" customWidth="1"/>
-    <col min="5" max="5" width="48.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>538</v>
-      </c>
-      <c r="B3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>537</v>
-      </c>
-      <c r="E4" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>149</v>
-      </c>
-      <c r="B5" t="s">
-        <v>248</v>
-      </c>
-      <c r="C5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E5" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>539</v>
-      </c>
-      <c r="B6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>548</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>540</v>
-      </c>
-      <c r="B7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>549</v>
-      </c>
-      <c r="F7" s="14"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>541</v>
-      </c>
-      <c r="B8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>542</v>
-      </c>
-      <c r="B9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>543</v>
-      </c>
-      <c r="B10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" t="s">
-        <v>95</v>
-      </c>
-      <c r="E10" t="s">
-        <v>197</v>
-      </c>
-      <c r="G10" s="12"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>544</v>
-      </c>
-      <c r="B11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>96</v>
-      </c>
-      <c r="E11" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>545</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>546</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" t="s">
-        <v>248</v>
-      </c>
-      <c r="C14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" t="s">
-        <v>100</v>
-      </c>
-      <c r="E14" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>547</v>
-      </c>
-      <c r="B16" t="s">
-        <v>79</v>
-      </c>
-      <c r="C16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>645</v>
-      </c>
-      <c r="B17" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E20" s="4"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F6:F7"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6639,6 +6766,302 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="4" max="4" width="64.28515625" customWidth="1"/>
+    <col min="5" max="5" width="48.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>538</v>
+      </c>
+      <c r="B3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>537</v>
+      </c>
+      <c r="E4" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>539</v>
+      </c>
+      <c r="B6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>548</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>540</v>
+      </c>
+      <c r="B7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>549</v>
+      </c>
+      <c r="F7" s="14"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>541</v>
+      </c>
+      <c r="B8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>542</v>
+      </c>
+      <c r="B9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>543</v>
+      </c>
+      <c r="B10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" t="s">
+        <v>197</v>
+      </c>
+      <c r="G10" s="12"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>544</v>
+      </c>
+      <c r="B11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>545</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>546</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
+        <v>248</v>
+      </c>
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>547</v>
+      </c>
+      <c r="B16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>645</v>
+      </c>
+      <c r="B17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E20" s="4"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F6:F7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6876,11 +7299,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -7113,7 +7536,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
@@ -7369,7 +7792,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
@@ -7461,7 +7884,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
@@ -7875,7 +8298,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F32"/>
   <sheetViews>
@@ -8297,7 +8720,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
@@ -8656,7 +9079,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -8728,594 +9151,421 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27:D28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="64" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>719</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>720</v>
+      </c>
+      <c r="B3" t="s">
         <v>237</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>248</v>
       </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
       <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>721</v>
+      </c>
+      <c r="B4" t="s">
         <v>586</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
       <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
         <v>89</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
+      <c r="B5" t="s">
         <v>587</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>175</v>
       </c>
-      <c r="C5" t="s">
-        <v>0</v>
-      </c>
       <c r="D5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>583</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>33</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>2</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>208</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>35</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>64</v>
       </c>
-      <c r="C7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="D7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>37</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>64</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>584</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>64</v>
       </c>
-      <c r="C9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="D9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>585</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>64</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>39</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>40</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>41</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>249</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>176</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>34</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>588</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>20</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>250</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>238</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>2</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>251</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>249</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>2</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>172</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>19</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>2</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>211</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>191</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>15</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>2</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>212</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="F18" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>266</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>154</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>2</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>213</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="F19" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>55</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>53</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>2</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>55</v>
       </c>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>177</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>86</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>52</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>53</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>2</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>178</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>86</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>179</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>79</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>589</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>19</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>2</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>590</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>86</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>42</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>248</v>
       </c>
-      <c r="C27" t="s">
-        <v>0</v>
-      </c>
       <c r="D27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>43</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>44</v>
       </c>
-      <c r="C28" t="s">
-        <v>0</v>
-      </c>
       <c r="D28" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>180</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>84</v>
       </c>
-      <c r="C29" t="s">
-        <v>0</v>
-      </c>
       <c r="D29" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
         <v>214</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>264</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:C33"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="43.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>668</v>
-      </c>
-      <c r="B1" s="17"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
-        <v>674</v>
-      </c>
-      <c r="B3" t="s">
-        <v>237</v>
-      </c>
-      <c r="C3" t="s">
-        <v>248</v>
-      </c>
-      <c r="D3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" t="s">
-        <v>616</v>
-      </c>
-      <c r="C4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>669</v>
-      </c>
-      <c r="F4" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>667</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>209</v>
-      </c>
-      <c r="F5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>180</v>
-      </c>
-      <c r="C7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>671</v>
-      </c>
-      <c r="F7" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>593</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>672</v>
-      </c>
-      <c r="F8" t="s">
-        <v>247</v>
-      </c>
-      <c r="G8" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" t="s">
-        <v>248</v>
-      </c>
-      <c r="D9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>215</v>
-      </c>
-      <c r="F9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
-        <v>216</v>
-      </c>
-      <c r="F10" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A3:A4"/>
+  <mergeCells count="1">
+    <mergeCell ref="A4:A5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9400,6 +9650,213 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="51.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>668</v>
+      </c>
+      <c r="B1" s="17"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>674</v>
+      </c>
+      <c r="B3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="18"/>
+      <c r="B4" t="s">
+        <v>616</v>
+      </c>
+      <c r="C4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>669</v>
+      </c>
+      <c r="F4" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>667</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>671</v>
+      </c>
+      <c r="F7" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>593</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>672</v>
+      </c>
+      <c r="F8" t="s">
+        <v>247</v>
+      </c>
+      <c r="G8" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>722</v>
+      </c>
+      <c r="C9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>723</v>
+      </c>
+      <c r="F9" t="s">
+        <v>695</v>
+      </c>
+      <c r="G9" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>248</v>
+      </c>
+      <c r="D10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>215</v>
+      </c>
+      <c r="F10" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>216</v>
+      </c>
+      <c r="F11" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:A4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9497,7 +9954,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -9586,7 +10043,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
@@ -9695,7 +10152,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
@@ -9842,7 +10299,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -9914,7 +10371,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -10012,7 +10469,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
@@ -10231,7 +10688,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
@@ -10564,7 +11021,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -10695,166 +11152,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>237</v>
-      </c>
-      <c r="B3" t="s">
-        <v>248</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>612</v>
-      </c>
-      <c r="E3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>611</v>
-      </c>
-      <c r="E4" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>607</v>
-      </c>
-      <c r="B5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>608</v>
-      </c>
-      <c r="B6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>128</v>
-      </c>
-      <c r="B7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>609</v>
-      </c>
-      <c r="B8" t="s">
-        <v>248</v>
-      </c>
-      <c r="C8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>196</v>
-      </c>
-      <c r="F8" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" t="s">
-        <v>248</v>
-      </c>
-      <c r="C9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
-        <v>241</v>
-      </c>
-      <c r="E9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" t="s">
-        <v>134</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -10931,6 +11228,166 @@
       </c>
       <c r="D4" t="s">
         <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>612</v>
+      </c>
+      <c r="E3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>611</v>
+      </c>
+      <c r="E4" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>607</v>
+      </c>
+      <c r="B5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>608</v>
+      </c>
+      <c r="B6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>609</v>
+      </c>
+      <c r="B8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>196</v>
+      </c>
+      <c r="F8" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>248</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
